--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aspire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A08FC4-F821-497F-A20C-199808B48B3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39502B4C-00C3-49A8-AF10-D4A6F45B34DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Project name</t>
   </si>
@@ -70,13 +70,49 @@
   </si>
   <si>
     <t>Add routing to Seller page</t>
+  </si>
+  <si>
+    <t>Tooltip  task</t>
+  </si>
+  <si>
+    <t>Reference site</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/</t>
+  </si>
+  <si>
+    <t>https://codepen.io/havardob/pen/qBjbQya</t>
+  </si>
+  <si>
+    <t>Replicate side bar with tooltip</t>
+  </si>
+  <si>
+    <t>https://dribbble.com/shots/22724100-Top-bar-iterations</t>
+  </si>
+  <si>
+    <t>User profile image</t>
+  </si>
+  <si>
+    <t>Replicate adding of user in the topbaf</t>
+  </si>
+  <si>
+    <t>Sliding navigation bar</t>
+  </si>
+  <si>
+    <t>https://codepen.io/Anna_Batura/pen/qBbaXBd</t>
+  </si>
+  <si>
+    <t>Flipkart footer</t>
+  </si>
+  <si>
+    <t>Replicate flipkart footer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +124,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,10 +154,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -127,8 +172,12 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,23 +456,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="23" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -431,104 +481,188 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45356</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>0.45277777777777778</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>0.46666666666666662</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>0.47083333333333338</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>0.48402777777777778</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>0.49722222222222223</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>0.51944444444444449</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>0.52569444444444446</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>0.74305555555555547</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>0.52569444444444446</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>0.74305555555555547</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>0.52569444444444446</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>0.74305555555555547</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>0.52569444444444446</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>0.74305555555555547</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F8" xr:uid="{A314ABC2-6C89-44DA-ACBA-49FD3F3E5ABA}"/>
+  <autoFilter ref="A1:G8" xr:uid="{A314ABC2-6C89-44DA-ACBA-49FD3F3E5ABA}"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{EAF64E16-3E60-4464-9A8D-4FE62B9E74E3}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{8619C54B-C813-4C0B-BC3F-97D4B19F5CCF}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{EDA1592C-E104-4366-8EA9-68DF1A4D5D1A}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{F1DE5E84-0DC3-4FC9-BF7E-3F19BE2C7460}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{3215104F-E604-4210-A654-7514928E8B25}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>